--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rc0342f2b9ffe41b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R21d2e4e45ba642a0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R21d2e4e45ba642a0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rdb8e281b35fa4c4a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rdb8e281b35fa4c4a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R55dccc3d66a14ee1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R55dccc3d66a14ee1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Ra5a491feb8444182"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Ra5a491feb8444182"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R8de5ecb3f7bc4b18"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R8de5ecb3f7bc4b18"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R61b3f3c9433a4271"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R61b3f3c9433a4271"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R89fb48b8e1df426b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R89fb48b8e1df426b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R2908645844d64aea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R2908645844d64aea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Ra950df2bed7e4970"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Ra950df2bed7e4970"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R53951a9c0535411d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R53951a9c0535411d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R70bdaa3d14d74af4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R70bdaa3d14d74af4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R32fd8f65fadf47b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/055_JsonFlatObjectImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="R32fd8f65fadf47b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data Flat" sheetId="1" r:id="Rf36a9e31702d45a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
